--- a/Resource/ReportList.xlsx
+++ b/Resource/ReportList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\KSP-MIS\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE270E4-EBEB-40CA-ACEF-DEBB0BBF3E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66451E-2DD6-4762-8378-1D5F5AC2E310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{47DB0EF2-5DFF-4F7D-AC0E-BDA88FD85439}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="มาตรฐาน" sheetId="2" r:id="rId2"/>
     <sheet name="จรรยาบรรณ" sheetId="3" r:id="rId3"/>
     <sheet name="ใบอนุญาต" sheetId="4" r:id="rId4"/>
+    <sheet name="บุคคล" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>การแจ้งงานบริการอาคารสถานที่</t>
   </si>
@@ -69,9 +70,6 @@
     <t>การขอใช้ห้องประชุม</t>
   </si>
   <si>
-    <t>ทะเบียนคุมสัญญายืมเงินทดรองจ่ายะ</t>
-  </si>
-  <si>
     <t>จำนวนผู้ฝึกอบรม</t>
   </si>
   <si>
@@ -132,12 +130,6 @@
     <t>จำนวนผู้ได้รับใบอนุญาตให้ประกอบวิชาชีพครูต่างประเทศตามประเภทวิชาชีพ</t>
   </si>
   <si>
-    <t>จำนวนการออกหนังวืออนุญาตประกอบวิชาชีพชาวไทย โดยไม่มีใบอนุญาต ตามสังกัด</t>
-  </si>
-  <si>
-    <t>จำนวนการออกหนังวืออนุญาตประกอบวิชาชีพชาวต่างชาติ โดยไม่มีใบอนุญาต ตามสังกัด</t>
-  </si>
-  <si>
     <t>จำนวนครูชาวต่างชาติที่ขออนุญาตประกอบวิชาชีพ ตามประเทศ</t>
   </si>
   <si>
@@ -151,16 +143,229 @@
   </si>
   <si>
     <t>จำนวนครูชาวต่างชาติ ที่ได้รับอนุญาตแยกตามประเทศ</t>
+  </si>
+  <si>
+    <t>เงินเรายได้รายเดือน และเงินตอบแทนอื่นๆ</t>
+  </si>
+  <si>
+    <t>เงินเดือนย้อนหลัง 60 เดือน</t>
+  </si>
+  <si>
+    <t>รายชื่อและยอดรวมเงินหักสะสม กบจ.</t>
+  </si>
+  <si>
+    <t>สรุปจำนวนบุคคลากรของส่วนงาน</t>
+  </si>
+  <si>
+    <t>สรุปข้อมูลกิจกรรมการพัฒนาบุคคลากรตามประเภท</t>
+  </si>
+  <si>
+    <t>พนักงานผู้มีคุณสมบัติคัดเลือกในกลุ่มบริหาร เพื่อเลื่อนวิทยฐานะ</t>
+  </si>
+  <si>
+    <t>รายงานผลตัวชี้วัดจำแนกตามปีงบประมาณ</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปี ตามส่วนงาน/งบรายจ่าย</t>
+  </si>
+  <si>
+    <t>งบประมาณรายจ่ายประจำปี ตามพันธกิจ/ไตรมาส</t>
+  </si>
+  <si>
+    <t>ประมาณการรายรับประจำปี ตามไตรมาสก์</t>
+  </si>
+  <si>
+    <t>สรุปฐานะทางการเงินของ สำนักเลขาฯ, มูลนิธิ กองทุน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สรุปผลการดำเนินงานทางการเงินของ สำนักเลขาฯ, มูลนิธิ กองทุน </t>
+  </si>
+  <si>
+    <t>ผลตัวชี้วัดตามปีงบประมาณ</t>
+  </si>
+  <si>
+    <t>FIN-BDG-01</t>
+  </si>
+  <si>
+    <t>ทะเบียนคุมสัญญายืมเงินทดรองจ่าย</t>
+  </si>
+  <si>
+    <t>FIN-BDG-02</t>
+  </si>
+  <si>
+    <t>FIN-BDG-03</t>
+  </si>
+  <si>
+    <t>FIN-BDG-04</t>
+  </si>
+  <si>
+    <t>FIN-BDG-05</t>
+  </si>
+  <si>
+    <t>FIN-BDG-06</t>
+  </si>
+  <si>
+    <t>FIN-BDG-07</t>
+  </si>
+  <si>
+    <t>FIN-BDG-08</t>
+  </si>
+  <si>
+    <t>FIN-BDG-09</t>
+  </si>
+  <si>
+    <t>FIN-BDG-10</t>
+  </si>
+  <si>
+    <t>FIN-BDG-11</t>
+  </si>
+  <si>
+    <t>FIN-BDG-12</t>
+  </si>
+  <si>
+    <t>FIN-ASS-01</t>
+  </si>
+  <si>
+    <t>FIN-ASS-02</t>
+  </si>
+  <si>
+    <t>FIN-ASS-03</t>
+  </si>
+  <si>
+    <t>FIN-ASS-04</t>
+  </si>
+  <si>
+    <t>FIN-ASS-05</t>
+  </si>
+  <si>
+    <t>STD-01</t>
+  </si>
+  <si>
+    <t>STD-02</t>
+  </si>
+  <si>
+    <t>STD-03</t>
+  </si>
+  <si>
+    <t>STD-04</t>
+  </si>
+  <si>
+    <t>ETH-01</t>
+  </si>
+  <si>
+    <t>ETH-02</t>
+  </si>
+  <si>
+    <t>จำนวนการออกหนังสืออนุญาตประกอบวิชาชีพชาวไทย โดยไม่มีใบอนุญาต ตามสังกัด</t>
+  </si>
+  <si>
+    <t>จำนวนการออกหนังสืออนุญาตประกอบวิชาชีพชาวต่างชาติ โดยไม่มีใบอนุญาต ตามสังกัด</t>
+  </si>
+  <si>
+    <t>LIC-THA-01</t>
+  </si>
+  <si>
+    <t>LIC-THA-02</t>
+  </si>
+  <si>
+    <t>LIC-THA-03</t>
+  </si>
+  <si>
+    <t>LIC-THA-04</t>
+  </si>
+  <si>
+    <t>LIC-THA-05</t>
+  </si>
+  <si>
+    <t>LIC-THA-06</t>
+  </si>
+  <si>
+    <t>LIC-THA-07</t>
+  </si>
+  <si>
+    <t>LIC-THA-08</t>
+  </si>
+  <si>
+    <t>LIC-THA-09</t>
+  </si>
+  <si>
+    <t>LIC-THA-10</t>
+  </si>
+  <si>
+    <t>LIC-THA-11</t>
+  </si>
+  <si>
+    <t>LIC-THA-12</t>
+  </si>
+  <si>
+    <t>LIC-FOR-01</t>
+  </si>
+  <si>
+    <t>LIC-FOR-02</t>
+  </si>
+  <si>
+    <t>HR-01</t>
+  </si>
+  <si>
+    <t>HR-02</t>
+  </si>
+  <si>
+    <t>HR-03</t>
+  </si>
+  <si>
+    <t>HR-04</t>
+  </si>
+  <si>
+    <t>HR-05</t>
+  </si>
+  <si>
+    <t>HR-06</t>
+  </si>
+  <si>
+    <t>HR-07</t>
+  </si>
+  <si>
+    <t>FIN-BDG-13</t>
+  </si>
+  <si>
+    <t>LIC-FOR-03</t>
+  </si>
+  <si>
+    <t>LIC-FOR-04</t>
+  </si>
+  <si>
+    <t>LIC-FOR-05</t>
+  </si>
+  <si>
+    <t>LIC-FOR-06</t>
+  </si>
+  <si>
+    <t>LIC-FOR-07</t>
+  </si>
+  <si>
+    <t>LIC-FOR-08</t>
+  </si>
+  <si>
+    <t>LIC-FOR-09</t>
+  </si>
+  <si>
+    <t>LIC-FOR-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -502,72 +707,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A149963-E7A3-4396-8058-C5399ECE0720}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="53.86328125" customWidth="1"/>
+    <col min="2" max="2" width="32.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>9</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4D1ACD-A72F-4CD2-BFCA-6A96F4D990D0}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -588,24 +881,36 @@
     <col min="1" max="1" width="34.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -615,22 +920,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD51C6F-C8B6-4258-B5AB-D32E9B1E8342}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -640,128 +954,271 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A274BC3-5DF0-43C1-B2CA-1D8A4FFD176D}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="71.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0978890-3B60-407C-BF8E-ADD7981876F9}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>